--- a/team_specific_matrix/James Madison_B.xlsx
+++ b/team_specific_matrix/James Madison_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1972477064220184</v>
+        <v>0.1954397394136808</v>
       </c>
       <c r="C2">
-        <v>0.5642201834862385</v>
+        <v>0.5504885993485342</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009174311926605505</v>
+        <v>0.01628664495114007</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1376146788990826</v>
+        <v>0.1465798045602606</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09174311926605505</v>
+        <v>0.09120521172638436</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02380952380952381</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C3">
-        <v>0.02380952380952381</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03174603174603174</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.753968253968254</v>
+        <v>0.7570621468926554</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1666666666666667</v>
+        <v>0.1581920903954802</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03333333333333333</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3</v>
+        <v>0.3409090909090909</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04545454545454546</v>
+        <v>0.05741626794258373</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03246753246753246</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2402597402597403</v>
+        <v>0.2440191387559809</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01298701298701299</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2077922077922078</v>
+        <v>0.1961722488038277</v>
       </c>
       <c r="R6">
-        <v>0.07792207792207792</v>
+        <v>0.06698564593301436</v>
       </c>
       <c r="S6">
-        <v>0.3831168831168831</v>
+        <v>0.3779904306220095</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1095890410958904</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0273972602739726</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06164383561643835</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1164383561643836</v>
+        <v>0.1032863849765258</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0410958904109589</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1849315068493151</v>
+        <v>0.1971830985915493</v>
       </c>
       <c r="R7">
-        <v>0.0410958904109589</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="S7">
-        <v>0.4178082191780822</v>
+        <v>0.4178403755868544</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07962529274004684</v>
+        <v>0.09380863039399624</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0117096018735363</v>
+        <v>0.01688555347091933</v>
       </c>
       <c r="E8">
-        <v>0.00234192037470726</v>
+        <v>0.00375234521575985</v>
       </c>
       <c r="F8">
-        <v>0.05620608899297424</v>
+        <v>0.05628517823639775</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1030444964871194</v>
+        <v>0.1200750469043152</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01405152224824356</v>
+        <v>0.01688555347091933</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1569086651053864</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="R8">
-        <v>0.07259953161592506</v>
+        <v>0.06566604127579738</v>
       </c>
       <c r="S8">
-        <v>0.5035128805620609</v>
+        <v>0.4727954971857411</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09146341463414634</v>
+        <v>0.09049773755656108</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006097560975609756</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06707317073170732</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1097560975609756</v>
+        <v>0.09954751131221719</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03048780487804878</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1524390243902439</v>
+        <v>0.1583710407239819</v>
       </c>
       <c r="R9">
-        <v>0.04878048780487805</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="S9">
-        <v>0.4939024390243902</v>
+        <v>0.4841628959276018</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1094972067039106</v>
+        <v>0.1090604026845638</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0223463687150838</v>
+        <v>0.02348993288590604</v>
       </c>
       <c r="E10">
-        <v>0.00223463687150838</v>
+        <v>0.001677852348993289</v>
       </c>
       <c r="F10">
-        <v>0.05921787709497207</v>
+        <v>0.06124161073825504</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1005586592178771</v>
+        <v>0.1107382550335571</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01675977653631285</v>
+        <v>0.01677852348993289</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.194413407821229</v>
+        <v>0.1971476510067114</v>
       </c>
       <c r="R10">
-        <v>0.06927374301675977</v>
+        <v>0.06963087248322147</v>
       </c>
       <c r="S10">
-        <v>0.4256983240223464</v>
+        <v>0.410234899328859</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1822222222222222</v>
+        <v>0.1861861861861862</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08444444444444445</v>
+        <v>0.06606606606606606</v>
       </c>
       <c r="K11">
-        <v>0.2355555555555555</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="L11">
-        <v>0.4888888888888889</v>
+        <v>0.4984984984984985</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008888888888888889</v>
+        <v>0.006006006006006006</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7631578947368421</v>
+        <v>0.7485714285714286</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2017543859649123</v>
+        <v>0.2057142857142857</v>
       </c>
       <c r="K12">
-        <v>0.008771929824561403</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="L12">
-        <v>0.01754385964912281</v>
+        <v>0.03428571428571429</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.008771929824561403</v>
+        <v>0.005714285714285714</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.575</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.325</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01449275362318841</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1376811594202899</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="I15">
-        <v>0.07246376811594203</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="J15">
-        <v>0.2681159420289855</v>
+        <v>0.2842105263157895</v>
       </c>
       <c r="K15">
-        <v>0.07971014492753623</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007246376811594203</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="N15">
-        <v>0.007246376811594203</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="O15">
-        <v>0.04347826086956522</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3695652173913043</v>
+        <v>0.3473684210526316</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2827586206896552</v>
+        <v>0.2572815533980582</v>
       </c>
       <c r="I16">
-        <v>0.08275862068965517</v>
+        <v>0.08737864077669903</v>
       </c>
       <c r="J16">
-        <v>0.3310344827586207</v>
+        <v>0.3349514563106796</v>
       </c>
       <c r="K16">
-        <v>0.08275862068965517</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01379310344827586</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="O16">
-        <v>0.03448275862068965</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1724137931034483</v>
+        <v>0.1553398058252427</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02160493827160494</v>
+        <v>0.02073732718894009</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1820987654320988</v>
+        <v>0.1866359447004608</v>
       </c>
       <c r="I17">
-        <v>0.08950617283950617</v>
+        <v>0.1013824884792627</v>
       </c>
       <c r="J17">
-        <v>0.4228395061728395</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="K17">
-        <v>0.1018518518518518</v>
+        <v>0.1152073732718894</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0154320987654321</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="N17">
-        <v>0.00308641975308642</v>
+        <v>0.002304147465437788</v>
       </c>
       <c r="O17">
-        <v>0.04629629629629629</v>
+        <v>0.04377880184331797</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1172839506172839</v>
+        <v>0.1105990783410138</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03361344537815126</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1680672268907563</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="I18">
-        <v>0.1260504201680672</v>
+        <v>0.1233766233766234</v>
       </c>
       <c r="J18">
-        <v>0.3949579831932773</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="K18">
-        <v>0.06722689075630252</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03361344537815126</v>
+        <v>0.03246753246753246</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1764705882352941</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01504424778761062</v>
+        <v>0.0173973556019485</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2557522123893805</v>
+        <v>0.2456506610995129</v>
       </c>
       <c r="I19">
-        <v>0.08672566371681416</v>
+        <v>0.08768267223382047</v>
       </c>
       <c r="J19">
-        <v>0.3327433628318584</v>
+        <v>0.3298538622129436</v>
       </c>
       <c r="K19">
-        <v>0.09469026548672567</v>
+        <v>0.1064718162839248</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03008849557522124</v>
+        <v>0.02644398051496172</v>
       </c>
       <c r="N19">
-        <v>0.001769911504424779</v>
+        <v>0.002783576896311761</v>
       </c>
       <c r="O19">
-        <v>0.05044247787610619</v>
+        <v>0.05149617258176757</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1327433628318584</v>
+        <v>0.1322199025748086</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/James Madison_B.xlsx
+++ b/team_specific_matrix/James Madison_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1954397394136808</v>
+        <v>0.1918604651162791</v>
       </c>
       <c r="C2">
-        <v>0.5504885993485342</v>
+        <v>0.563953488372093</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01628664495114007</v>
+        <v>0.01453488372093023</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1465798045602606</v>
+        <v>0.1424418604651163</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09120521172638436</v>
+        <v>0.0872093023255814</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01694915254237288</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C3">
-        <v>0.03389830508474576</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03389830508474576</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7570621468926554</v>
+        <v>0.7598039215686274</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1581920903954802</v>
+        <v>0.1568627450980392</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04545454545454546</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6136363636363636</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3409090909090909</v>
+        <v>0.3469387755102041</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05741626794258373</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04784688995215311</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2440191387559809</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009569377990430622</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1961722488038277</v>
+        <v>0.1991341991341991</v>
       </c>
       <c r="R6">
-        <v>0.06698564593301436</v>
+        <v>0.0735930735930736</v>
       </c>
       <c r="S6">
-        <v>0.3779904306220095</v>
+        <v>0.3809523809523809</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1267605633802817</v>
+        <v>0.1286307053941909</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02347417840375587</v>
+        <v>0.02074688796680498</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04694835680751173</v>
+        <v>0.04979253112033195</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1032863849765258</v>
+        <v>0.0954356846473029</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04225352112676056</v>
+        <v>0.03734439834024896</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1971830985915493</v>
+        <v>0.1950207468879668</v>
       </c>
       <c r="R7">
-        <v>0.04225352112676056</v>
+        <v>0.04564315352697095</v>
       </c>
       <c r="S7">
-        <v>0.4178403755868544</v>
+        <v>0.4273858921161826</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09380863039399624</v>
+        <v>0.09450171821305842</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01688555347091933</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="E8">
-        <v>0.00375234521575985</v>
+        <v>0.003436426116838488</v>
       </c>
       <c r="F8">
-        <v>0.05628517823639775</v>
+        <v>0.0584192439862543</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1200750469043152</v>
+        <v>0.1185567010309278</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01688555347091933</v>
+        <v>0.01718213058419244</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1538461538461539</v>
+        <v>0.1529209621993127</v>
       </c>
       <c r="R8">
-        <v>0.06566604127579738</v>
+        <v>0.06872852233676977</v>
       </c>
       <c r="S8">
-        <v>0.4727954971857411</v>
+        <v>0.4656357388316151</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09049773755656108</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01809954751131222</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05882352941176471</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09954751131221719</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03167420814479638</v>
+        <v>0.0282258064516129</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1583710407239819</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="R9">
-        <v>0.05882352941176471</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="S9">
-        <v>0.4841628959276018</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1090604026845638</v>
+        <v>0.1124713083397093</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02348993288590604</v>
+        <v>0.02295332823259373</v>
       </c>
       <c r="E10">
-        <v>0.001677852348993289</v>
+        <v>0.001530221882172915</v>
       </c>
       <c r="F10">
-        <v>0.06124161073825504</v>
+        <v>0.05967865340474369</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1107382550335571</v>
+        <v>0.1101759755164499</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01677852348993289</v>
+        <v>0.01530221882172915</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1971476510067114</v>
+        <v>0.2012241775057383</v>
       </c>
       <c r="R10">
-        <v>0.06963087248322147</v>
+        <v>0.07192042846212701</v>
       </c>
       <c r="S10">
-        <v>0.410234899328859</v>
+        <v>0.404743687834736</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1861861861861862</v>
+        <v>0.193029490616622</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06606606606606606</v>
+        <v>0.06166219839142091</v>
       </c>
       <c r="K11">
-        <v>0.2432432432432433</v>
+        <v>0.2439678284182306</v>
       </c>
       <c r="L11">
-        <v>0.4984984984984985</v>
+        <v>0.4959785522788204</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006006006006006006</v>
+        <v>0.005361930294906166</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7485714285714286</v>
+        <v>0.7474226804123711</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2057142857142857</v>
+        <v>0.2010309278350516</v>
       </c>
       <c r="K12">
-        <v>0.005714285714285714</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="L12">
-        <v>0.03428571428571429</v>
+        <v>0.03608247422680412</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.005714285714285714</v>
+        <v>0.01030927835051546</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5869565217391305</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3260869565217391</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08695652173913043</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02105263157894737</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1157894736842105</v>
+        <v>0.1148325358851675</v>
       </c>
       <c r="I15">
-        <v>0.07368421052631578</v>
+        <v>0.08133971291866028</v>
       </c>
       <c r="J15">
-        <v>0.2842105263157895</v>
+        <v>0.2966507177033493</v>
       </c>
       <c r="K15">
-        <v>0.07894736842105263</v>
+        <v>0.08133971291866028</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01052631578947368</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="N15">
-        <v>0.005263157894736842</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="O15">
-        <v>0.06315789473684211</v>
+        <v>0.06698564593301436</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3473684210526316</v>
+        <v>0.3205741626794258</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2572815533980582</v>
+        <v>0.2382978723404255</v>
       </c>
       <c r="I16">
-        <v>0.08737864077669903</v>
+        <v>0.08936170212765958</v>
       </c>
       <c r="J16">
-        <v>0.3349514563106796</v>
+        <v>0.3361702127659574</v>
       </c>
       <c r="K16">
-        <v>0.0970873786407767</v>
+        <v>0.1106382978723404</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01456310679611651</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="N16">
-        <v>0.004854368932038835</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="O16">
-        <v>0.04854368932038835</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1553398058252427</v>
+        <v>0.1574468085106383</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02073732718894009</v>
+        <v>0.02079002079002079</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1866359447004608</v>
+        <v>0.1975051975051975</v>
       </c>
       <c r="I17">
-        <v>0.1013824884792627</v>
+        <v>0.103950103950104</v>
       </c>
       <c r="J17">
-        <v>0.4032258064516129</v>
+        <v>0.3866943866943867</v>
       </c>
       <c r="K17">
-        <v>0.1152073732718894</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01612903225806452</v>
+        <v>0.01871101871101871</v>
       </c>
       <c r="N17">
-        <v>0.002304147465437788</v>
+        <v>0.002079002079002079</v>
       </c>
       <c r="O17">
-        <v>0.04377880184331797</v>
+        <v>0.04781704781704782</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1105990783410138</v>
+        <v>0.1143451143451144</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04545454545454546</v>
+        <v>0.03977272727272727</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1688311688311688</v>
+        <v>0.1534090909090909</v>
       </c>
       <c r="I18">
-        <v>0.1233766233766234</v>
+        <v>0.125</v>
       </c>
       <c r="J18">
-        <v>0.3896103896103896</v>
+        <v>0.3863636363636364</v>
       </c>
       <c r="K18">
-        <v>0.09740259740259741</v>
+        <v>0.1079545454545455</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03246753246753246</v>
+        <v>0.03977272727272727</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1428571428571428</v>
+        <v>0.1420454545454546</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0173973556019485</v>
+        <v>0.01720841300191205</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2456506610995129</v>
+        <v>0.2441045251752709</v>
       </c>
       <c r="I19">
-        <v>0.08768267223382047</v>
+        <v>0.08795411089866156</v>
       </c>
       <c r="J19">
-        <v>0.3298538622129436</v>
+        <v>0.3326959847036329</v>
       </c>
       <c r="K19">
-        <v>0.1064718162839248</v>
+        <v>0.1077119184193754</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02644398051496172</v>
+        <v>0.02613129381771829</v>
       </c>
       <c r="N19">
-        <v>0.002783576896311761</v>
+        <v>0.002549394518801784</v>
       </c>
       <c r="O19">
-        <v>0.05149617258176757</v>
+        <v>0.05162523900573614</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1322199025748086</v>
+        <v>0.130019120458891</v>
       </c>
     </row>
   </sheetData>
